--- a/core/ReleaseNotes.xlsx
+++ b/core/ReleaseNotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>panjun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,21 @@
   </si>
   <si>
     <t>发布嵌入式软件版本：Luat_V0001_AIR810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/04/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布嵌入式软件版本：Luat_V0002_AIR810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.扩大Lua脚本的资源区；
+2.通过双串口升级Lua；
+3.开机自动上报"CALL READY"；
+4.增加通过串口输出日志的接口opntrace；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,12 +88,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -395,6 +413,22 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="58.5" customHeight="1">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/core/ReleaseNotes.xlsx
+++ b/core/ReleaseNotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>panjun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,21 @@
 2.通过双串口升级Lua；
 3.开机自动上报"CALL READY"；
 4.增加通过串口输出日志的接口opntrace；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/05/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.为pmd模块增加一个新接口get_param；
+2.加载有语法错误的脚本时，串口无法输出错误信息；
+3.升级lua时，擦写文件系统；
+4.升级lua的资源文件时，分包索引从0开始；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,6 +112,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -429,6 +447,17 @@
     <row r="3" spans="1:3" ht="58.5" customHeight="1">
       <c r="C3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="67.5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
